--- a/03_DB設計書/データベース設計書 ver1.1.xlsx
+++ b/03_DB設計書/データベース設計書 ver1.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarot\Desktop\2023Dev3Late\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarot\Desktop\2023Dev3Late\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD78336-4C43-4B94-8444-C20C8C27658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFBAF7-EDEA-4911-A24A-003181B86D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -36,17 +36,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -55,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="125">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -712,6 +701,10 @@
   </si>
   <si>
     <t>ルーレット機能</t>
+  </si>
+  <si>
+    <t>attribute_id</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2066,6 +2059,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,18 +2137,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2153,33 +2167,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2198,107 +2185,140 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2308,33 +2328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2717,7 +2710,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -3149,19 +3142,19 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="141"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="141"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="126"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3273,20 +3266,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="127"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3304,78 +3297,78 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="146"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124" t="s">
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124" t="s">
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="139"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="149"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="146"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="153"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3401,15 +3394,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3435,15 +3428,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3469,15 +3462,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="152"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="159"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3572,106 +3565,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="133"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="133"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3810,384 +3803,384 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="140" t="s">
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="140" t="s">
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="143"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="143"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="140" t="s">
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AD23" s="143"/>
-      <c r="AE23" s="141"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="126"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="140"/>
-      <c r="AD24" s="143"/>
-      <c r="AE24" s="141"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="132"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="126"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="159"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="143"/>
-      <c r="AE25" s="141"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="126"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="141"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="126"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="143"/>
-      <c r="AE27" s="141"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="126"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="141"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="126"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="159"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="143"/>
-      <c r="AE29" s="141"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="126"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="141"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="126"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="159"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="143"/>
-      <c r="AE31" s="141"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="126"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="141"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="125"/>
+      <c r="AE32" s="126"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="159"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="143"/>
-      <c r="AE33" s="141"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="126"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4225,51 +4218,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4281,6 +4229,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4304,7 +4297,9 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
@@ -4328,10 +4323,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
@@ -4344,10 +4339,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="161"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="30" t="s">
         <v>20</v>
       </c>
@@ -4360,10 +4355,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="161"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="30" t="s">
         <v>23</v>
       </c>
@@ -4376,10 +4371,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="30" t="s">
         <v>26</v>
       </c>
@@ -4390,10 +4385,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="161"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="30" t="s">
         <v>29</v>
       </c>
@@ -4434,10 +4429,10 @@
       <c r="D9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="167"/>
+      <c r="F9" s="165"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4452,10 +4447,10 @@
       <c r="D10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="163"/>
+      <c r="F10" s="161"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4470,10 +4465,10 @@
       <c r="D11" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="162" t="s">
+      <c r="E11" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="163"/>
+      <c r="F11" s="161"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -4488,10 +4483,10 @@
       <c r="D12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="162" t="s">
+      <c r="E12" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="163"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4506,42 +4501,42 @@
       <c r="D13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="162" t="s">
+      <c r="E13" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="163"/>
+      <c r="F13" s="161"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4783,6 +4778,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4792,11 +4792,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4916,42 +4911,42 @@
         <v>54</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -4972,10 +4967,10 @@
       <c r="B10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="199"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="48" t="s">
         <v>62</v>
       </c>
@@ -4996,10 +4991,10 @@
       <c r="B11" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="201"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
@@ -5018,10 +5013,10 @@
       <c r="B12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="68" t="s">
         <v>73</v>
       </c>
@@ -5038,10 +5033,10 @@
       <c r="B13" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="190"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="68" t="s">
         <v>76</v>
       </c>
@@ -5056,8 +5051,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5066,8 +5061,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5076,8 +5071,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5086,8 +5081,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5096,8 +5091,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5106,8 +5101,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5116,8 +5111,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5126,8 +5121,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5136,8 +5131,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5146,8 +5141,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5156,8 +5151,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5166,8 +5161,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5176,8 +5171,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="190"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5186,8 +5181,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5196,8 +5191,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5206,8 +5201,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5216,8 +5211,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5249,10 +5244,10 @@
       <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="189"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -5267,51 +5262,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="178"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="173"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="176"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5344,15 +5339,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179" t="s">
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="198"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -5360,51 +5355,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="170"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="173"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="173"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="173"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="180"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5436,15 +5431,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="196" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="197"/>
+      <c r="G49" s="174"/>
       <c r="H49" s="49" t="s">
         <v>88</v>
       </c>
@@ -5452,66 +5447,87 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="194"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="184"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="173"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="180"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="173"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="180"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="173"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="192"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="182"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -5528,38 +5544,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5678,42 +5673,42 @@
         <v>54</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -5734,10 +5729,10 @@
       <c r="B10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="199"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="48" t="s">
         <v>62</v>
       </c>
@@ -5758,10 +5753,10 @@
       <c r="B11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="201"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
@@ -5780,10 +5775,10 @@
       <c r="B12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="68" t="s">
         <v>73</v>
       </c>
@@ -5796,8 +5791,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
@@ -5806,8 +5801,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5816,8 +5811,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5826,8 +5821,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5836,8 +5831,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5846,8 +5841,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5856,8 +5851,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5866,8 +5861,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5876,8 +5871,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5886,8 +5881,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5896,8 +5891,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5906,8 +5901,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5916,8 +5911,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5926,8 +5921,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="190"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5936,8 +5931,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5946,8 +5941,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5956,8 +5951,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5966,8 +5961,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5999,10 +5994,10 @@
       <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="189"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -6017,51 +6012,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="178"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="173"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="176"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6094,15 +6089,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179" t="s">
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="198"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -6110,51 +6105,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="170"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="173"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="173"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="173"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="180"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6186,15 +6181,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="196" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="197"/>
+      <c r="G49" s="174"/>
       <c r="H49" s="49" t="s">
         <v>88</v>
       </c>
@@ -6202,83 +6197,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="194"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="184"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="173"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="180"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="173"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="180"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="173"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="192"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="182"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6292,24 +6277,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6419,42 +6414,42 @@
         <v>54</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -6475,10 +6470,10 @@
       <c r="B10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="199"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="48" t="s">
         <v>62</v>
       </c>
@@ -6499,10 +6494,10 @@
       <c r="B11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="201"/>
+      <c r="D11" s="173"/>
       <c r="E11" s="63" t="s">
         <v>73</v>
       </c>
@@ -6519,10 +6514,10 @@
       <c r="B12" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="68" t="s">
         <v>104</v>
       </c>
@@ -6539,10 +6534,10 @@
       <c r="B13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="190"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="68" t="s">
         <v>68</v>
       </c>
@@ -6559,10 +6554,10 @@
       <c r="B14" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="190"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="73" t="s">
         <v>68</v>
       </c>
@@ -6577,8 +6572,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -6587,8 +6582,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -6597,8 +6592,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -6607,8 +6602,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -6617,8 +6612,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -6627,8 +6622,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -6637,8 +6632,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -6647,8 +6642,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -6657,8 +6652,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -6667,8 +6662,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -6677,8 +6672,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -6687,8 +6682,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="190"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -6697,8 +6692,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -6707,8 +6702,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -6717,8 +6712,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -6727,8 +6722,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -6760,10 +6755,10 @@
       <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="189"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -6778,51 +6773,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="178"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="173"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="176"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -6855,15 +6850,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179" t="s">
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="198"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -6871,51 +6866,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="170"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="173"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="173"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="173"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="180"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6947,15 +6942,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="196" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="197"/>
+      <c r="G49" s="174"/>
       <c r="H49" s="49" t="s">
         <v>88</v>
       </c>
@@ -6963,83 +6958,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="194"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="184"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="173"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="180"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="173"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="180"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="173"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="192"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="182"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7053,24 +7038,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7085,7 +7080,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -7180,36 +7177,36 @@
         <v>54</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -7230,10 +7227,10 @@
       <c r="B10" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="199"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="48" t="s">
         <v>62</v>
       </c>
@@ -7254,10 +7251,10 @@
       <c r="B11" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="201"/>
+      <c r="C11" s="172" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="173"/>
       <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
@@ -7276,10 +7273,10 @@
       <c r="B12" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="68" t="s">
         <v>73</v>
       </c>
@@ -7292,8 +7289,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
@@ -7302,8 +7299,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -7312,8 +7309,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -7322,8 +7319,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="190"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -7332,8 +7329,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7342,8 +7339,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7352,8 +7349,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7362,8 +7359,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="190"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7372,8 +7369,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="190"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7382,8 +7379,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="190"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7392,8 +7389,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7402,8 +7399,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="190"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7412,8 +7409,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="189"/>
-      <c r="D25" s="190"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7422,8 +7419,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="190"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7432,8 +7429,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="190"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7442,8 +7439,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="189"/>
-      <c r="D28" s="190"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7452,8 +7449,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7462,8 +7459,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7495,10 +7492,10 @@
       <c r="A33" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="189"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -7513,51 +7510,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="178"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="173"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="180"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="173"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="180"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="176"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7590,15 +7587,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179" t="s">
+      <c r="D41" s="188"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="198"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -7606,51 +7603,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="170"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="173"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="173"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="180"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="173"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="180"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="192"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7682,15 +7679,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="196" t="s">
+      <c r="D49" s="188"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="197"/>
+      <c r="G49" s="174"/>
       <c r="H49" s="49" t="s">
         <v>88</v>
       </c>
@@ -7698,83 +7695,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="194"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="194"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="184"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="173"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="180"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="173"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="180"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="173"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="180"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="192"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="182"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -7788,24 +7775,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7868,10 +7865,10 @@
       <c r="K2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="205">
         <v>45203</v>
       </c>
-      <c r="M2" s="209"/>
+      <c r="M2" s="206"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="118" t="s">
@@ -7893,8 +7890,8 @@
       <c r="K3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="210"/>
-      <c r="M3" s="209"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="206"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -7914,8 +7911,8 @@
       <c r="K4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="210"/>
-      <c r="M4" s="209"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="206"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="119"/>
@@ -7976,14 +7973,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="211" t="s">
+      <c r="G9" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
       <c r="M9" s="98"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -8011,15 +8008,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="205" t="s">
+      <c r="C11" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
       <c r="G11" s="102" t="s">
         <v>120</v>
       </c>
@@ -8032,13 +8029,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="205" t="s">
+      <c r="B12" s="212"/>
+      <c r="C12" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="102"/>
       <c r="H12" s="102" t="s">
         <v>120</v>
@@ -8055,13 +8052,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="205" t="s">
+      <c r="B13" s="212"/>
+      <c r="C13" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
       <c r="G13" s="102" t="s">
         <v>122</v>
       </c>
@@ -8074,11 +8071,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -8089,11 +8086,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -8104,11 +8101,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -8119,11 +8116,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -8134,11 +8131,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -8149,11 +8146,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -8164,11 +8161,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -8179,11 +8176,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -8194,11 +8191,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -8209,11 +8206,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -8224,11 +8221,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -8239,11 +8236,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -8254,11 +8251,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -8269,11 +8266,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -8284,11 +8281,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -8299,11 +8296,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -8314,11 +8311,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="207"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -8329,11 +8326,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -8344,11 +8341,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -8359,11 +8356,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -8374,11 +8371,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="204"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
@@ -8408,19 +8405,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -8437,6 +8421,19 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8445,26 +8442,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="faca6d88-7b62-4f92-a245-5b507fe54e5b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac43ccd9-413b-4c81-a2c1-bf3c207215aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010016E87DC6FA8CF744B6BC2BFD9A3FE64F" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="eb6a6032989e2b152c6d3ad04c9b3ddf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac43ccd9-413b-4c81-a2c1-bf3c207215aa" xmlns:ns3="faca6d88-7b62-4f92-a245-5b507fe54e5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="842636dea1e9b980fee5183ae30cfac2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac43ccd9-413b-4c81-a2c1-bf3c207215aa"/>
@@ -8651,10 +8628,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="faca6d88-7b62-4f92-a245-5b507fe54e5b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac43ccd9-413b-4c81-a2c1-bf3c207215aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB2D98-7295-42FD-B129-03393D1635ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac43ccd9-413b-4c81-a2c1-bf3c207215aa"/>
+    <ds:schemaRef ds:uri="faca6d88-7b62-4f92-a245-5b507fe54e5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8671,20 +8679,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB2D98-7295-42FD-B129-03393D1635ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96326D39-5435-48DC-AF0E-CDD4943397FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac43ccd9-413b-4c81-a2c1-bf3c207215aa"/>
-    <ds:schemaRef ds:uri="faca6d88-7b62-4f92-a245-5b507fe54e5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>